--- a/Table2_Marine.xlsx
+++ b/Table2_Marine.xlsx
@@ -53,16 +53,16 @@
     <t xml:space="preserve">Natura_2000</t>
   </si>
   <si>
+    <t xml:space="preserve">Havstrategi_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havstrategi_streng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natur_Vildt_Reservater</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fredninger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havstrategi_standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havstrategi_streng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natur_Vildt_Reservater</t>
   </si>
 </sst>
 </file>
@@ -434,34 +434,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>24781.5333</v>
+        <v>17666.3558</v>
       </c>
       <c r="C2" t="n">
-        <v>23.5968296848416</v>
+        <v>16.8217996811526</v>
       </c>
       <c r="D2" t="n">
         <v>5.7452</v>
       </c>
       <c r="E2" t="n">
-        <v>3282.7563</v>
+        <v>3227.5307</v>
       </c>
       <c r="F2" t="n">
-        <v>17.8603</v>
+        <v>15.8651</v>
       </c>
       <c r="G2" t="n">
-        <v>465.0968</v>
+        <v>92.6985</v>
       </c>
       <c r="H2" t="n">
-        <v>595.2833</v>
+        <v>551.1324</v>
       </c>
       <c r="I2" t="n">
         <v>21.6612</v>
       </c>
       <c r="J2" t="n">
-        <v>1566.6876</v>
+        <v>1560.3671</v>
       </c>
       <c r="K2" t="n">
-        <v>1633.9707</v>
+        <v>1630.581</v>
       </c>
     </row>
     <row r="3">
@@ -469,34 +469,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>23146.5322</v>
+        <v>16645.8216</v>
       </c>
       <c r="C3" t="n">
-        <v>22.039991291342</v>
+        <v>15.850053041692</v>
       </c>
       <c r="D3" t="n">
         <v>5.7452</v>
       </c>
       <c r="E3" t="n">
-        <v>3282.7562</v>
+        <v>3227.5306</v>
       </c>
       <c r="F3" t="n">
-        <v>17.8603</v>
+        <v>15.8651</v>
       </c>
       <c r="G3" t="n">
-        <v>465.0968</v>
+        <v>92.6985</v>
       </c>
       <c r="H3" t="n">
-        <v>595.2833</v>
+        <v>551.1324</v>
       </c>
       <c r="I3" t="n">
         <v>21.6612</v>
       </c>
       <c r="J3" t="n">
-        <v>1566.6876</v>
+        <v>1560.3671</v>
       </c>
       <c r="K3" t="n">
-        <v>1633.9707</v>
+        <v>1630.581</v>
       </c>
     </row>
     <row r="4">
@@ -504,34 +504,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>20982.4104</v>
+        <v>4514.9193</v>
       </c>
       <c r="C4" t="n">
-        <v>19.9793272915138</v>
+        <v>4.29907949896321</v>
       </c>
       <c r="D4" t="n">
-        <v>5.7452</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3281.8365</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.5564</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>442.6629</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>595.2597</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.6612</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1566.6774</v>
+        <v>42.0247</v>
       </c>
       <c r="K4" t="n">
-        <v>1633.8201</v>
+        <v>121.5701</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>4893.2902</v>
+        <v>4300.9158</v>
       </c>
       <c r="C5" t="n">
-        <v>4.65936203583918</v>
+        <v>4.09530662985426</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>42.0247</v>
+        <v>39.6697</v>
       </c>
       <c r="K5" t="n">
-        <v>121.5701</v>
+        <v>103.4291</v>
       </c>
     </row>
     <row r="6">
@@ -574,34 +574,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>4300.9158</v>
+        <v>2290.6334</v>
       </c>
       <c r="C6" t="n">
-        <v>4.09530662985426</v>
+        <v>2.18112759835605</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1788</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>961.8611</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.3855</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>61.4542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>436.0481</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.6697</v>
+        <v>547.2228</v>
       </c>
       <c r="K6" t="n">
-        <v>103.4291</v>
+        <v>53.7964</v>
       </c>
     </row>
     <row r="7">
@@ -609,34 +609,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3407.6526</v>
+        <v>64.6123</v>
       </c>
       <c r="C7" t="n">
-        <v>3.24474668511765</v>
+        <v>0.0615234505544453</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2008</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1055.5636</v>
+        <v>10.0239</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7272</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>384.6722</v>
+        <v>0.5898</v>
       </c>
       <c r="H7" t="n">
-        <v>475.0286</v>
+        <v>2.5874</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>569.2924</v>
+        <v>10.7466</v>
       </c>
       <c r="K7" t="n">
-        <v>70.9404</v>
+        <v>3.5334</v>
       </c>
     </row>
   </sheetData>
